--- a/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_25.xlsx
+++ b/ArtigoKrigingVsg/peaks/Gaussian/content/results/metrics_1_25.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_9</t>
+          <t>model_1_25_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9997909005221972</v>
+        <v>0.9315982564834809</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8304951316880748</v>
+        <v>0.7521933881775411</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8240880950884767</v>
+        <v>0.6787564857809999</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9987738986520869</v>
+        <v>0.8693624928057497</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0008703821586479063</v>
+        <v>0.2847240834974146</v>
       </c>
       <c r="G2" t="n">
-        <v>1.133479834899995</v>
+        <v>1.65708395430131</v>
       </c>
       <c r="H2" t="n">
-        <v>0.6292266839102192</v>
+        <v>1.149069423592182</v>
       </c>
       <c r="I2" t="n">
-        <v>0.004020590223354292</v>
+        <v>0.419813603231448</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08790480706165454</v>
+        <v>1.447923534531456</v>
       </c>
       <c r="K2" t="n">
-        <v>0.02950223989204729</v>
+        <v>0.5335954305439793</v>
       </c>
       <c r="L2" t="n">
-        <v>1.013382366579378</v>
+        <v>0.9068572003179315</v>
       </c>
       <c r="M2" t="n">
-        <v>0.02996687067892679</v>
+        <v>0.5419990251753072</v>
       </c>
       <c r="N2" t="n">
-        <v>144.0931563598992</v>
+        <v>36.51246939146282</v>
       </c>
       <c r="O2" t="n">
-        <v>285.4283289031156</v>
+        <v>73.47705297968864</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_8</t>
+          <t>model_1_25_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999793023791833</v>
+        <v>0.9316658133318403</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8304768690994193</v>
+        <v>0.7521114742900847</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8240287259963703</v>
+        <v>0.6791384531753085</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9988054390524076</v>
+        <v>0.868545392175013</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0008615439921041751</v>
+        <v>0.2844428763125645</v>
       </c>
       <c r="G3" t="n">
-        <v>1.133601956914426</v>
+        <v>1.65763171284391</v>
       </c>
       <c r="H3" t="n">
-        <v>0.6294390437102659</v>
+        <v>1.147703148370482</v>
       </c>
       <c r="I3" t="n">
-        <v>0.003917164005459614</v>
+        <v>0.4224394184920084</v>
       </c>
       <c r="J3" t="n">
-        <v>0.08891929490248439</v>
+        <v>1.445284869392718</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02935206963919538</v>
+        <v>0.5333318632076698</v>
       </c>
       <c r="L3" t="n">
-        <v>1.013246477322689</v>
+        <v>0.9069491926220804</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02981433539470765</v>
+        <v>0.5417313069169215</v>
       </c>
       <c r="N3" t="n">
-        <v>144.1135688775132</v>
+        <v>36.51444566364717</v>
       </c>
       <c r="O3" t="n">
-        <v>285.4487414207296</v>
+        <v>73.47902925187299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_7</t>
+          <t>model_1_25_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.999818031922169</v>
+        <v>0.9317296476538125</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8303985912946485</v>
+        <v>0.7520282825031208</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8230789732993884</v>
+        <v>0.6795080479269358</v>
       </c>
       <c r="E4" t="n">
-        <v>0.998993901312822</v>
+        <v>0.8677320158694892</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0007574469819426848</v>
+        <v>0.2841771642431813</v>
       </c>
       <c r="G4" t="n">
-        <v>1.134125400955364</v>
+        <v>1.658188016706401</v>
       </c>
       <c r="H4" t="n">
-        <v>0.6328362540375445</v>
+        <v>1.146381129374246</v>
       </c>
       <c r="I4" t="n">
-        <v>0.003299164911842537</v>
+        <v>0.4250532653491542</v>
       </c>
       <c r="J4" t="n">
-        <v>0.08387773749504146</v>
+        <v>1.442692475181962</v>
       </c>
       <c r="K4" t="n">
-        <v>0.02752175470319225</v>
+        <v>0.5330826992532972</v>
       </c>
       <c r="L4" t="n">
-        <v>1.011645956981184</v>
+        <v>0.9070361159541277</v>
       </c>
       <c r="M4" t="n">
-        <v>0.02795519482810616</v>
+        <v>0.5414782188793402</v>
       </c>
       <c r="N4" t="n">
-        <v>144.3711140277299</v>
+        <v>36.51631483511333</v>
       </c>
       <c r="O4" t="n">
-        <v>285.7062865709463</v>
+        <v>73.48089842333916</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_6</t>
+          <t>model_1_25_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998645028113176</v>
+        <v>0.9317898216835254</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8303039916087239</v>
+        <v>0.7519438114218332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8232097890568977</v>
+        <v>0.679865859018671</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9993183066641739</v>
+        <v>0.8669224892303355</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0005640106652363864</v>
+        <v>0.2839266882380453</v>
       </c>
       <c r="G5" t="n">
-        <v>1.134757989490734</v>
+        <v>1.658752875215925</v>
       </c>
       <c r="H5" t="n">
-        <v>0.6323683336580674</v>
+        <v>1.145101259846188</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002235385815384074</v>
+        <v>0.4276547410095065</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07237922427002873</v>
+        <v>1.440143458528303</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0237489087167471</v>
+        <v>0.5328477158044739</v>
       </c>
       <c r="L5" t="n">
-        <v>1.008671820075676</v>
+        <v>0.9071180550584176</v>
       </c>
       <c r="M5" t="n">
-        <v>0.02412293028883683</v>
+        <v>0.5412395346760951</v>
       </c>
       <c r="N5" t="n">
-        <v>144.9608747933028</v>
+        <v>36.51807842830336</v>
       </c>
       <c r="O5" t="n">
-        <v>286.2960473365192</v>
+        <v>73.48266201652918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_5</t>
+          <t>model_1_25_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998703341750992</v>
+        <v>0.9318464846428439</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8302872226584423</v>
+        <v>0.7518581455569867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8232223763717328</v>
+        <v>0.6802117146958253</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9993637470094463</v>
+        <v>0.8661169193929461</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0005397374578166754</v>
+        <v>0.2836908271571603</v>
       </c>
       <c r="G6" t="n">
-        <v>1.134870123538481</v>
+        <v>1.659325723248608</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6323233095627568</v>
+        <v>1.143864154142872</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002086379366399366</v>
+        <v>0.4302435011852971</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07101072423805162</v>
+        <v>1.437630406461544</v>
       </c>
       <c r="K6" t="n">
-        <v>0.02323225038210193</v>
+        <v>0.5326263485382228</v>
       </c>
       <c r="L6" t="n">
-        <v>1.008298612793652</v>
+        <v>0.9071952131306811</v>
       </c>
       <c r="M6" t="n">
-        <v>0.02359813510188985</v>
+        <v>0.5410146810966866</v>
       </c>
       <c r="N6" t="n">
-        <v>145.0488554517253</v>
+        <v>36.51974054117382</v>
       </c>
       <c r="O6" t="n">
-        <v>286.3840279949417</v>
+        <v>73.48432412939965</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_2</t>
+          <t>model_1_25_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998688233987972</v>
+        <v>0.9318997276775128</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8302675142275833</v>
+        <v>0.7517713102371409</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8230180123402879</v>
+        <v>0.6805461552831638</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9993939589236079</v>
+        <v>0.8653154416071061</v>
       </c>
       <c r="F7" t="n">
-        <v>0.000546026104506072</v>
+        <v>0.2834692016039307</v>
       </c>
       <c r="G7" t="n">
-        <v>1.135001913906384</v>
+        <v>1.659906391432257</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6330543078535278</v>
+        <v>1.142667879553942</v>
       </c>
       <c r="I7" t="n">
-        <v>0.001987309475550759</v>
+        <v>0.4328191112410153</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07362542134021409</v>
+        <v>1.435153049024006</v>
       </c>
       <c r="K7" t="n">
-        <v>0.02336720146928322</v>
+        <v>0.5324182581429103</v>
       </c>
       <c r="L7" t="n">
-        <v>1.008395302476977</v>
+        <v>0.9072677142842728</v>
       </c>
       <c r="M7" t="n">
-        <v>0.02373521153379266</v>
+        <v>0.5408033134856621</v>
       </c>
       <c r="N7" t="n">
-        <v>145.0256875458231</v>
+        <v>36.52130359606677</v>
       </c>
       <c r="O7" t="n">
-        <v>286.3608600890395</v>
+        <v>73.48588718429259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_1</t>
+          <t>model_1_25_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998733552453239</v>
+        <v>0.9319496272083092</v>
       </c>
       <c r="C8" t="n">
-        <v>0.830230451707787</v>
+        <v>0.7516833846205471</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8224396762744921</v>
+        <v>0.6808690459611961</v>
       </c>
       <c r="E8" t="n">
-        <v>0.999532394832971</v>
+        <v>0.8645180410250315</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0005271621723530104</v>
+        <v>0.2832614934748312</v>
       </c>
       <c r="G8" t="n">
-        <v>1.135249751146919</v>
+        <v>1.66049435043528</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6351229824270276</v>
+        <v>1.141512918320897</v>
       </c>
       <c r="I8" t="n">
-        <v>0.001533355106530732</v>
+        <v>0.4353816188911485</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07486356561383532</v>
+        <v>1.432711242685221</v>
       </c>
       <c r="K8" t="n">
-        <v>0.02296001246413012</v>
+        <v>0.5322231613475978</v>
       </c>
       <c r="L8" t="n">
-        <v>1.008105264299267</v>
+        <v>0.9073356625815274</v>
       </c>
       <c r="M8" t="n">
-        <v>0.02332160970884806</v>
+        <v>0.5406051441108488</v>
       </c>
       <c r="N8" t="n">
-        <v>145.0960046586724</v>
+        <v>36.52276960551502</v>
       </c>
       <c r="O8" t="n">
-        <v>286.4311772018888</v>
+        <v>73.48735319374084</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_4</t>
+          <t>model_1_25_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.999872682854141</v>
+        <v>0.9319962825688528</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8302161966961583</v>
+        <v>0.7515943594320643</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8231242927663927</v>
+        <v>0.6811811185317026</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9993817381196242</v>
+        <v>0.86372474913414</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0005299610186025654</v>
+        <v>0.2830672892910183</v>
       </c>
       <c r="G9" t="n">
-        <v>1.135345074475318</v>
+        <v>1.661089662280588</v>
       </c>
       <c r="H9" t="n">
-        <v>0.6326741489318443</v>
+        <v>1.140396652831203</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002027383524161848</v>
+        <v>0.4379309229484759</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07067904420605413</v>
+        <v>1.430303147536722</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0230208822290234</v>
+        <v>0.5320406838682717</v>
       </c>
       <c r="L9" t="n">
-        <v>1.008148297334976</v>
+        <v>0.9073991932852463</v>
       </c>
       <c r="M9" t="n">
-        <v>0.02338343811169097</v>
+        <v>0.5404197927936338</v>
       </c>
       <c r="N9" t="n">
-        <v>145.085414207859</v>
+        <v>36.52414127651134</v>
       </c>
       <c r="O9" t="n">
-        <v>286.4205867510754</v>
+        <v>73.48872486473716</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_3</t>
+          <t>model_1_25_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998755506029137</v>
+        <v>0.9320397926887213</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8301951498918727</v>
+        <v>0.7515043107670017</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8231297462435823</v>
+        <v>0.6814823311902045</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9994105740604783</v>
+        <v>0.8629357838469035</v>
       </c>
       <c r="F10" t="n">
-        <v>0.000518023937776388</v>
+        <v>0.2828861772554834</v>
       </c>
       <c r="G10" t="n">
-        <v>1.135485814552488</v>
+        <v>1.661691818118497</v>
       </c>
       <c r="H10" t="n">
-        <v>0.6326546421601476</v>
+        <v>1.139319232617055</v>
       </c>
       <c r="I10" t="n">
-        <v>0.001932825678616117</v>
+        <v>0.4404663231346322</v>
       </c>
       <c r="J10" t="n">
-        <v>0.07013160784728671</v>
+        <v>1.427929369980293</v>
       </c>
       <c r="K10" t="n">
-        <v>0.02276013923016263</v>
+        <v>0.5318704515720754</v>
       </c>
       <c r="L10" t="n">
-        <v>1.007964761413525</v>
+        <v>0.907458441108046</v>
       </c>
       <c r="M10" t="n">
-        <v>0.02311858867124552</v>
+        <v>0.5402468795089422</v>
       </c>
       <c r="N10" t="n">
-        <v>145.130978209698</v>
+        <v>36.52542132550776</v>
       </c>
       <c r="O10" t="n">
-        <v>286.4661507529144</v>
+        <v>73.49000491373357</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_25_0</t>
+          <t>model_1_25_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998710431630761</v>
+        <v>0.9320802228948227</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8292374044660022</v>
+        <v>0.7514133044262852</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8221881292718551</v>
+        <v>0.6817727516299155</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9998470912992418</v>
+        <v>0.8621510792583795</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0005367862764349048</v>
+        <v>0.2827178854432277</v>
       </c>
       <c r="G11" t="n">
-        <v>1.141890262625295</v>
+        <v>1.662300377937914</v>
       </c>
       <c r="H11" t="n">
-        <v>0.6360227514699266</v>
+        <v>1.138280415543753</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0005014130588641703</v>
+        <v>0.4429880312401812</v>
       </c>
       <c r="J11" t="n">
-        <v>0.05139354229402169</v>
+        <v>1.425589114362109</v>
       </c>
       <c r="K11" t="n">
-        <v>0.02316864856729682</v>
+        <v>0.5317122205133409</v>
       </c>
       <c r="L11" t="n">
-        <v>1.008253237563132</v>
+        <v>0.9075134950057161</v>
       </c>
       <c r="M11" t="n">
-        <v>0.02353353162208005</v>
+        <v>0.5400861564692057</v>
       </c>
       <c r="N11" t="n">
-        <v>145.0598210762847</v>
+        <v>36.52661149954165</v>
       </c>
       <c r="O11" t="n">
-        <v>286.3949936195011</v>
+        <v>73.49119508776747</v>
       </c>
     </row>
   </sheetData>
